--- a/savedata/テンプレート/セーブデータ.xlsx
+++ b/savedata/テンプレート/セーブデータ.xlsx
@@ -468,7 +468,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
